--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -105,9 +105,6 @@
     <t>Building  server for communication with MySQL</t>
   </si>
   <si>
-    <t>Connect UI elements for communication in UI</t>
-  </si>
-  <si>
     <t>Ahmad &amp; Amin</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Connect UI elements for communication</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>19</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>22</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>24</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>26</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>28</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="E16" s="13">
         <v>3</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="16"/>
@@ -981,10 +981,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>9</v>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -99,21 +99,12 @@
     <t>DB for User, Room, Post</t>
   </si>
   <si>
-    <t>Ahmad &amp; Ugurcan</t>
-  </si>
-  <si>
     <t>Building  server for communication with MySQL</t>
   </si>
   <si>
-    <t>Ahmad &amp; Amin</t>
-  </si>
-  <si>
     <t>Create the sprint backlog and product backlog</t>
   </si>
   <si>
-    <t xml:space="preserve">Athar </t>
-  </si>
-  <si>
     <t>Commit in GiutHub</t>
   </si>
   <si>
@@ -157,6 +148,9 @@
   </si>
   <si>
     <t>Connect UI elements for communication</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Firat</t>
   </si>
 </sst>
 </file>
@@ -684,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,14 +692,14 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -735,9 +729,9 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -746,18 +740,22 @@
         <v>9</v>
       </c>
       <c r="E5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>SUM(E5:E19)</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
@@ -774,10 +772,14 @@
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>SUM(F5:F19)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
@@ -795,9 +797,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
@@ -809,15 +811,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
@@ -829,15 +831,15 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
@@ -855,9 +857,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>19</v>
@@ -866,16 +868,18 @@
         <v>20</v>
       </c>
       <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12</v>
+      </c>
       <c r="G11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>22</v>
@@ -891,9 +895,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>24</v>
@@ -909,15 +913,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -927,16 +931,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="13">
         <v>2</v>
       </c>
@@ -945,16 +947,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="13">
         <v>3</v>
       </c>
@@ -965,14 +965,12 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
@@ -981,10 +979,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>9</v>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -75,33 +75,15 @@
     <t>Install Required Tools</t>
   </si>
   <si>
-    <t>Design the front page and post page using Cardview and Cardslib library</t>
-  </si>
-  <si>
     <t>Amin &amp; Deniz</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Navigation drawer as a sidebar showing main menu for App</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amin </t>
   </si>
   <si>
-    <t>Design database in MySQL</t>
-  </si>
-  <si>
     <t>Ahmad</t>
   </si>
   <si>
-    <t>DB for User, Room, Post</t>
-  </si>
-  <si>
-    <t>Building  server for communication with MySQL</t>
-  </si>
-  <si>
     <t>Create the sprint backlog and product backlog</t>
   </si>
   <si>
@@ -151,6 +133,63 @@
   </si>
   <si>
     <t>Ahmad &amp; Firat</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Navigation drawer as a sidebar showing main menu for Android</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Deniz</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>Create database in MySQL</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Amin</t>
+  </si>
+  <si>
+    <t>Athar</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>Add wiki for repositories</t>
+  </si>
+  <si>
+    <t>Athar &amp; Ugurcan</t>
+  </si>
+  <si>
+    <t>Build webservice using RETSful using JAX-RS on netbeans</t>
+  </si>
+  <si>
+    <t>Develop web service using Glassfish application server version 3</t>
+  </si>
+  <si>
+    <t>Develop client webservice request using Retrofit library for Android</t>
+  </si>
+  <si>
+    <t>Create tables for User, Room, Post in MySQL</t>
+  </si>
+  <si>
+    <t>Android UI front page, room page, post page using Cardview and Cardslib library in Android Studio</t>
+  </si>
+  <si>
+    <t>Add cross-tables and vote tables in MySQL</t>
   </si>
 </sst>
 </file>
@@ -369,14 +408,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,14 +720,16 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,7 +772,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -749,13 +790,13 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <f>SUM(E5:E19)</f>
-        <v>34.5</v>
+        <f>SUM(E5:E22)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
@@ -764,22 +805,22 @@
         <v>9</v>
       </c>
       <c r="E6" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <f>SUM(F5:F19)</f>
-        <v>22.5</v>
+        <f>SUM(F5:F22)</f>
+        <v>58.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
@@ -788,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>10</v>
@@ -799,7 +840,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>14</v>
@@ -819,7 +860,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
@@ -839,7 +880,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>18</v>
@@ -848,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>10</v>
@@ -859,206 +900,278 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="13">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
       <c r="G12" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>6</v>
+      </c>
       <c r="G13" s="14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="F14" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
       <c r="G14" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="13">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="16">
+        <v>5</v>
+      </c>
       <c r="G15" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="13">
-        <v>3</v>
-      </c>
-      <c r="F16" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
       <c r="G16" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="13">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16">
+        <v>6</v>
+      </c>
       <c r="G17" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3</v>
+      </c>
+      <c r="F18" s="23">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="14"/>
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="13"/>
       <c r="F24" s="16"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="13"/>
       <c r="F25" s="16"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="13"/>
       <c r="F26" s="16"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -1066,7 +1179,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="15"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1074,7 +1187,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="15"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -1082,7 +1195,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="15"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -1090,7 +1203,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="15"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -42,24 +42,12 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Meeting with the group members and customer</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Talk abour ideas and finalize the decision</t>
-  </si>
-  <si>
-    <t>Assigning duties for first Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad </t>
-  </si>
-  <si>
     <t xml:space="preserve">Creat Backlog sheet   </t>
   </si>
   <si>
@@ -90,18 +78,6 @@
     <t>Commit in GiutHub</t>
   </si>
   <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
-    <t>1.0.3</t>
-  </si>
-  <si>
-    <t>1.0.4</t>
-  </si>
-  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -190,6 +166,9 @@
   </si>
   <si>
     <t>Add cross-tables and vote tables in MySQL</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -717,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I32"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,392 +751,356 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <f>SUM(E5:E22)</f>
+        <f>SUM(E5:E19)</f>
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <f>SUM(F5:F22)</f>
-        <v>58.5</v>
+        <f>SUM(F5:F19)</f>
+        <v>54.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="16">
+        <v>8</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.5</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16">
         <v>6</v>
       </c>
-      <c r="F10" s="13">
-        <v>7</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="13">
         <v>5</v>
       </c>
       <c r="F11" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13">
         <v>4</v>
       </c>
       <c r="F12" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13">
         <v>4</v>
       </c>
       <c r="F14" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="13">
-        <v>4</v>
-      </c>
-      <c r="F15" s="16">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E16" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E17" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="22">
-        <v>3</v>
-      </c>
-      <c r="F18" s="23">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
         <v>2</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" s="13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F19" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>2</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F22" s="16">
-        <v>2</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="16"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="16"/>
       <c r="G25" s="14"/>
@@ -1165,14 +1108,14 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="16"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="16"/>
@@ -1186,37 +1129,13 @@
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="20"/>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
   </si>
 </sst>
 </file>
@@ -407,6 +410,200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn-Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Took</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="59705856"/>
+        <c:axId val="168475392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59705856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168475392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168475392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59705856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,16 +907,17 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -739,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -749,7 +947,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>50</v>
       </c>
@@ -768,12 +966,15 @@
       <c r="G5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5">
         <f>SUM(E5:E19)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
@@ -792,12 +993,15 @@
       <c r="G6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <f>SUM(F5:F19)</f>
         <v>54.5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -817,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
@@ -837,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
@@ -857,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
@@ -877,7 +1081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
@@ -897,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
@@ -917,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>37</v>
       </c>
@@ -937,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
@@ -957,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
@@ -977,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
@@ -1139,6 +1343,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Story</t>
-  </si>
-  <si>
     <t>Responsible Person</t>
   </si>
   <si>
@@ -36,33 +33,15 @@
     <t>Time Took</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creat Backlog sheet   </t>
-  </si>
-  <si>
     <t>Firat</t>
   </si>
   <si>
-    <t>Create GitHub Account</t>
-  </si>
-  <si>
     <t>Amin</t>
   </si>
   <si>
-    <t>Install Required Tools</t>
-  </si>
-  <si>
     <t>Amin &amp; Deniz</t>
   </si>
   <si>
@@ -72,54 +51,9 @@
     <t>Ahmad</t>
   </si>
   <si>
-    <t>Create the sprint backlog and product backlog</t>
-  </si>
-  <si>
-    <t>Commit in GiutHub</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
-    <t>Connect UI elements for communication</t>
-  </si>
-  <si>
-    <t>Ahmad &amp; Firat</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>Navigation drawer as a sidebar showing main menu for Android</t>
   </si>
   <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
     <t>Deniz</t>
   </si>
   <si>
@@ -129,27 +63,9 @@
     <t>Create database in MySQL</t>
   </si>
   <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
-    <t>Ahmad &amp; Amin</t>
-  </si>
-  <si>
     <t>Athar</t>
   </si>
   <si>
-    <t>1.5.3</t>
-  </si>
-  <si>
-    <t>Add wiki for repositories</t>
-  </si>
-  <si>
-    <t>Athar &amp; Ugurcan</t>
-  </si>
-  <si>
     <t>Build webservice using RETSful using JAX-RS on netbeans</t>
   </si>
   <si>
@@ -159,26 +75,98 @@
     <t>Develop client webservice request using Retrofit library for Android</t>
   </si>
   <si>
-    <t>Create tables for User, Room, Post in MySQL</t>
-  </si>
-  <si>
-    <t>Android UI front page, room page, post page using Cardview and Cardslib library in Android Studio</t>
-  </si>
-  <si>
     <t>Add cross-tables and vote tables in MySQL</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Android UI front page using Cardview and Cardslib library in Android Studio</t>
+  </si>
+  <si>
+    <t>Connect UI elements to webservice</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Create tables for User, Room in MySQL</t>
+  </si>
+  <si>
+    <t>Android UI  room page using Cardview and Cardslib library in Android Studio</t>
+  </si>
+  <si>
+    <t>Android UI  room post page using Cardview and Cardslib library in Android Studio</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Athar</t>
+  </si>
+  <si>
+    <t>Create table for Post in MySQL</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>Add webservice for posting</t>
+  </si>
+  <si>
+    <t>Test Database</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>Test UI</t>
+  </si>
+  <si>
+    <t>Test Server</t>
+  </si>
+  <si>
+    <t>Amin &amp; Ugurcan</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Android UI for voting</t>
+  </si>
+  <si>
+    <t>Product Backlog Item</t>
+  </si>
+  <si>
+    <t>Estimated Completion Time</t>
+  </si>
+  <si>
+    <t>Actual Time Spent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +192,25 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -350,18 +361,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,28 +407,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,6 +430,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +541,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burn-Down Chart</a:t>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> estimation </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -456,7 +568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$5</c:f>
+              <c:f>Sheet1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,14 +577,61 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$5</c:f>
+              <c:f>Sheet1!$M$3:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,7 +643,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$6</c:f>
+              <c:f>Sheet1!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,14 +652,46 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$6</c:f>
+              <c:f>Sheet1!$N$3:$N$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>54.5</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,20 +708,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59705856"/>
-        <c:axId val="168475392"/>
+        <c:axId val="222139392"/>
+        <c:axId val="46133760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59705856"/>
+        <c:axId val="222139392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Iteration Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168475392"/>
+        <c:crossAx val="46133760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168475392"/>
+        <c:axId val="46133760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59705856"/>
+        <c:crossAx val="222139392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,19 +786,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -893,453 +1103,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>240</v>
+      </c>
+      <c r="N3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="I4">
+        <f>SUM(E6:E23)</f>
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4" s="18">
+        <f>M4+(I5-I4)</f>
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>7</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="38"/>
+      <c r="I5" s="18">
+        <f>SUM(F6:F23)</f>
+        <v>45.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="G11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12">
+        <v>9</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
+        <v>7.9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="35">
+        <v>2</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5">
-        <f>SUM(E5:E19)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <f>SUM(F5:F19)</f>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13" t="s">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="30">
         <v>8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>8.1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="13">
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="13">
-        <v>7</v>
-      </c>
-      <c r="F8" s="16">
-        <v>8</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="13">
-        <v>4</v>
-      </c>
-      <c r="F10" s="16">
-        <v>6</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="16">
-        <v>4</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="13">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="E24" s="15">
         <v>2</v>
       </c>
-      <c r="F13" s="16">
-        <v>2</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="22">
-        <v>3</v>
-      </c>
-      <c r="F15" s="23">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3</v>
-      </c>
-      <c r="F16" s="16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16">
-        <v>2</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>2</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,12 +1620,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D6:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="42">
+        <v>7</v>
+      </c>
+      <c r="E8" s="43">
+        <v>32</v>
+      </c>
+      <c r="F8" s="43">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="42">
+        <v>2</v>
+      </c>
+      <c r="E9" s="43">
+        <v>6</v>
+      </c>
+      <c r="F9" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="44">
+        <v>8</v>
+      </c>
+      <c r="E10" s="45">
+        <v>4</v>
+      </c>
+      <c r="F10" s="45">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="270" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Amin</t>
   </si>
   <si>
-    <t>Amin &amp; Deniz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amin </t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Android UI  room page using Cardview and Cardslib library in Android Studio</t>
   </si>
   <si>
-    <t>Android UI  room post page using Cardview and Cardslib library in Android Studio</t>
-  </si>
-  <si>
     <t>Ahmad &amp; Athar</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Test Database</t>
   </si>
   <si>
-    <t>2,4</t>
-  </si>
-  <si>
     <t>Test UI</t>
   </si>
   <si>
@@ -160,6 +151,12 @@
   </si>
   <si>
     <t>Actual Time Spent</t>
+  </si>
+  <si>
+    <t>Webservice for getting room details</t>
+  </si>
+  <si>
+    <t>Webservice for getting posts with most votes</t>
   </si>
 </sst>
 </file>
@@ -236,49 +233,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -362,29 +322,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -393,24 +340,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,48 +353,38 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -470,37 +394,80 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +658,7 @@
                   <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205.5</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,11 +675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222139392"/>
-        <c:axId val="46133760"/>
+        <c:axId val="291301888"/>
+        <c:axId val="215273408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222139392"/>
+        <c:axId val="291301888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46133760"/>
+        <c:crossAx val="215273408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -748,7 +715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46133760"/>
+        <c:axId val="215273408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222139392"/>
+        <c:crossAx val="291301888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -787,13 +754,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1103,19 +1070,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N26"/>
+  <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="38" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="9" max="11" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
@@ -1123,39 +1090,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
+      <c r="G3" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>240</v>
@@ -1165,452 +1131,534 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="I4">
-        <f>SUM(E6:E23)</f>
-        <v>40</v>
-      </c>
+      <c r="B4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="44"/>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4">
         <v>200</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="9">
         <f>M4+(I5-I4)</f>
-        <v>205.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="35">
+      <c r="B5" s="24">
         <v>7</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="38"/>
-      <c r="I5" s="18">
-        <f>SUM(F6:F23)</f>
-        <v>45.5</v>
+      <c r="C5" s="25"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="9">
+        <f>SUM(E6:E13)</f>
+        <v>25</v>
+      </c>
+      <c r="J5" s="9">
+        <f>SUM(F6:F13)</f>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M5">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+      <c r="B6" s="10">
         <v>7.1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18"/>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9"/>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M6">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+      <c r="B7" s="10">
         <v>7.2</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M7">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="10">
         <v>7.3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="24">
-        <v>1</v>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M8">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+      <c r="B9" s="10">
         <v>7.4</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+      <c r="B10" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="24">
+        <v>2</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>8</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12">
-        <v>6</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12">
-        <v>9</v>
-      </c>
-      <c r="G13" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
-        <v>7.8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16">
-        <v>4</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
-        <v>7.9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
-        <v>7.1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="35">
-        <v>2</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="30">
-        <v>8</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
-        <v>8.1</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="30">
+        <v>2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>2</v>
+      </c>
+      <c r="G25" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>20</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
+        <v>13</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>13.1</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="28"/>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="37"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,63 +1668,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:F10"/>
+  <dimension ref="D7:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="51" customWidth="1"/>
     <col min="7" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="4:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="42">
+    <row r="7" spans="4:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="48">
         <v>7</v>
       </c>
-      <c r="E8" s="43">
-        <v>32</v>
-      </c>
-      <c r="F8" s="43">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="42">
+      <c r="E8" s="48">
+        <v>25</v>
+      </c>
+      <c r="F8" s="48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="48">
         <v>2</v>
       </c>
-      <c r="E9" s="43">
-        <v>6</v>
-      </c>
-      <c r="F9" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="44">
+      <c r="E9" s="48">
+        <v>4</v>
+      </c>
+      <c r="F9" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="49">
         <v>8</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="49">
         <v>4</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="49">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="50">
+        <v>21</v>
+      </c>
+      <c r="E11" s="50">
+        <v>4</v>
+      </c>
+      <c r="F11" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="50">
+        <v>20</v>
+      </c>
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+      <c r="F12" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="50">
+        <v>13</v>
+      </c>
+      <c r="E13" s="50">
+        <v>5</v>
+      </c>
+      <c r="F13" s="50">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Webservice for getting posts with most votes</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
   </si>
 </sst>
 </file>
@@ -675,11 +678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291301888"/>
-        <c:axId val="215273408"/>
+        <c:axId val="282900480"/>
+        <c:axId val="215272832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291301888"/>
+        <c:axId val="282900480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215273408"/>
+        <c:crossAx val="215272832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -715,7 +718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215273408"/>
+        <c:axId val="215272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291301888"/>
+        <c:crossAx val="282900480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N34"/>
+  <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,6 +1662,124 @@
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
       <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="24">
+        <v>7</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="5">
+        <v>6</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Ugurcan</t>
+  </si>
+  <si>
+    <t>Check username-password and profile status(active-deactive)</t>
   </si>
 </sst>
 </file>
@@ -678,11 +684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="282900480"/>
-        <c:axId val="215272832"/>
+        <c:axId val="40177024"/>
+        <c:axId val="40228352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282900480"/>
+        <c:axId val="40177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215272832"/>
+        <c:crossAx val="40228352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,7 +724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215272832"/>
+        <c:axId val="40228352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282900480"/>
+        <c:crossAx val="40177024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,68 +1692,80 @@
       <c r="G36" s="27"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="5">
+        <v>6</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="24">
         <v>11</v>
       </c>
-      <c r="E39" s="3">
-        <v>4</v>
-      </c>
-      <c r="F39" s="5">
-        <v>6</v>
-      </c>
-      <c r="G39" s="15" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="5">
-        <v>4</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="270" windowWidth="20115" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -166,6 +166,51 @@
   </si>
   <si>
     <t>Check username-password and profile status(active-deactive)</t>
+  </si>
+  <si>
+    <t>Connection between UI and Webservice using JASON</t>
+  </si>
+  <si>
+    <t>Testing database consistancy for voting on webservice on NetBeans and MySQL</t>
+  </si>
+  <si>
+    <t>Amin &amp; Deniz</t>
+  </si>
+  <si>
+    <t>Connect UI elements to webservice using JASON</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Firat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webservice for users and rooms using RETSful using JAX-RS on NetBeans </t>
+  </si>
+  <si>
+    <t>Webservice for users to vote on post and comments on RETSful using JAX-RS</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Design pop-up box for login in UI</t>
+  </si>
+  <si>
+    <t>Ugurcan &amp; Amin</t>
+  </si>
+  <si>
+    <t>Create tables in MySQL for commenting on posts</t>
+  </si>
+  <si>
+    <t>Test database and webservice for commenting</t>
+  </si>
+  <si>
+    <t>Webservice for getting posts and comments' details</t>
+  </si>
+  <si>
+    <t>Create tables in MySQL for commenting on comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad </t>
   </si>
 </sst>
 </file>
@@ -242,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -345,11 +390,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,9 +628,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,6 +638,74 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,15 +747,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> estimation </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Chart</a:t>
+              <a:t>Burn-Down Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -667,7 +889,10 @@
                   <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,11 +909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40177024"/>
-        <c:axId val="40228352"/>
+        <c:axId val="289773056"/>
+        <c:axId val="92116608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40177024"/>
+        <c:axId val="289773056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40228352"/>
+        <c:crossAx val="92116608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,18 +949,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40228352"/>
+        <c:axId val="92116608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40177024"/>
+        <c:crossAx val="289773056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N45"/>
+  <dimension ref="B2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1373,9 @@
       <c r="G3" s="42" t="s">
         <v>23</v>
       </c>
+      <c r="J3" s="51" t="s">
+        <v>57</v>
+      </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
@@ -1150,6 +1397,11 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="44"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <f>SUM(F6:F33)</f>
+        <v>47</v>
+      </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
@@ -1157,8 +1409,8 @@
         <v>200</v>
       </c>
       <c r="N4" s="9">
-        <f>M4+(I5-I4)</f>
-        <v>225</v>
+        <f>M4+(J4-40)</f>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1170,19 +1422,19 @@
       <c r="E5" s="21"/>
       <c r="F5" s="22"/>
       <c r="G5" s="27"/>
-      <c r="I5" s="9">
-        <f>SUM(E6:E13)</f>
-        <v>25</v>
-      </c>
       <c r="J5" s="9">
-        <f>SUM(F6:F13)</f>
-        <v>30</v>
+        <f>SUM(F37:F69)</f>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
         <v>37</v>
       </c>
       <c r="M5">
         <v>160</v>
+      </c>
+      <c r="N5" s="9">
+        <f>M5-40+J5</f>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1425,8 +1677,8 @@
       <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>12</v>
+      <c r="G17" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1641,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>13.2</v>
       </c>
@@ -1661,7 +1913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="37"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1669,19 +1921,19 @@
       <c r="F34" s="45"/>
       <c r="G34" s="46"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
         <v>7</v>
       </c>
@@ -1691,7 +1943,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>7.3</v>
       </c>
@@ -1707,16 +1959,16 @@
       <c r="F37" s="5">
         <v>6</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>7.4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>34</v>
@@ -1727,77 +1979,505 @@
       <c r="F38" s="5">
         <v>4</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
+        <v>8</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="34">
+        <v>2</v>
+      </c>
+      <c r="F44" s="34">
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="13">
+        <v>8.5</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="34">
+        <v>4</v>
+      </c>
+      <c r="F45" s="34">
+        <v>3</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="31"/>
+      <c r="K46">
+        <f>SUM(E37:E69)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="24">
+        <v>21</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="24">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="24">
+        <v>20</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="55"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="14"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="24">
+        <v>13</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
+        <v>13.1</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="24">
         <v>11</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="C57" s="25"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
         <v>11.1</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="14" t="s">
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="14"/>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2</v>
+      </c>
+      <c r="F59" s="7">
+        <v>2</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="13"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="31"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="24">
+        <v>4</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="13"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="31"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="24">
+        <v>5</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="59">
+        <v>5.3</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="62">
+        <v>1</v>
+      </c>
+      <c r="F69" s="63">
+        <v>1</v>
+      </c>
+      <c r="G69" s="64">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1807,95 +2487,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:F13"/>
+  <dimension ref="D6:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="50" customWidth="1"/>
     <col min="7" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="4:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="67" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="48">
+      <c r="D8" s="68">
         <v>7</v>
       </c>
-      <c r="E8" s="48">
-        <v>25</v>
-      </c>
-      <c r="F8" s="48">
-        <v>30</v>
+      <c r="E8" s="47">
+        <v>9</v>
+      </c>
+      <c r="F8" s="69">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="48">
-        <v>2</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="D9" s="68">
+        <v>8</v>
+      </c>
+      <c r="E9" s="47">
+        <v>10</v>
+      </c>
+      <c r="F9" s="69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="70">
+        <v>11</v>
+      </c>
+      <c r="E10" s="48">
+        <v>3</v>
+      </c>
+      <c r="F10" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="70">
+        <v>21</v>
+      </c>
+      <c r="E11" s="48">
+        <v>3</v>
+      </c>
+      <c r="F11" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="70">
+        <v>20</v>
+      </c>
+      <c r="E12" s="48">
+        <v>2</v>
+      </c>
+      <c r="F12" s="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="70">
+        <v>13</v>
+      </c>
+      <c r="E13" s="48">
+        <v>5</v>
+      </c>
+      <c r="F13" s="71">
         <v>4</v>
       </c>
-      <c r="F9" s="48">
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="72">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="49">
-        <v>8</v>
-      </c>
-      <c r="E10" s="49">
+      <c r="E14" s="49">
+        <v>5</v>
+      </c>
+      <c r="F14" s="73">
         <v>4</v>
       </c>
-      <c r="F10" s="49">
+    </row>
+    <row r="15" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="74">
+        <v>5</v>
+      </c>
+      <c r="E15" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="50">
-        <v>21</v>
-      </c>
-      <c r="E11" s="50">
-        <v>4</v>
-      </c>
-      <c r="F11" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="50">
-        <v>20</v>
-      </c>
-      <c r="E12" s="50">
-        <v>1</v>
-      </c>
-      <c r="F12" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="50">
-        <v>13</v>
-      </c>
-      <c r="E13" s="50">
-        <v>5</v>
-      </c>
-      <c r="F13" s="50">
-        <v>4</v>
+      <c r="F15" s="76">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ahmad </t>
+  </si>
+  <si>
+    <t>Test database and webservice for commenting for comments</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -909,11 +911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289773056"/>
-        <c:axId val="92116608"/>
+        <c:axId val="290052096"/>
+        <c:axId val="213963840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="289773056"/>
+        <c:axId val="290052096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,13 +937,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92116608"/>
+        <c:crossAx val="213963840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -949,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92116608"/>
+        <c:axId val="213963840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,21 +973,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289773056"/>
+        <c:crossAx val="290052096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1325,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2463,7 @@
         <v>5.3</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D69" s="61" t="s">
         <v>14</v>
@@ -2489,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:F15"/>
     </sheetView>
   </sheetViews>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -168,18 +168,12 @@
     <t>Check username-password and profile status(active-deactive)</t>
   </si>
   <si>
-    <t>Connection between UI and Webservice using JASON</t>
-  </si>
-  <si>
     <t>Testing database consistancy for voting on webservice on NetBeans and MySQL</t>
   </si>
   <si>
     <t>Amin &amp; Deniz</t>
   </si>
   <si>
-    <t>Connect UI elements to webservice using JASON</t>
-  </si>
-  <si>
     <t>Ahmad &amp; Firat</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>Test database and webservice for commenting for comments</t>
+  </si>
+  <si>
+    <t>Connect UI elements to webservice using JSON</t>
+  </si>
+  <si>
+    <t>Connection between UI and Webservice using JSON</t>
   </si>
 </sst>
 </file>
@@ -755,6 +755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -911,11 +912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290052096"/>
-        <c:axId val="213963840"/>
+        <c:axId val="291375104"/>
+        <c:axId val="215011840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290052096"/>
+        <c:axId val="291375104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,12 +938,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213963840"/>
+        <c:crossAx val="215011840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213963840"/>
+        <c:axId val="215011840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,19 +975,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290052096"/>
+        <c:crossAx val="291375104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1324,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -1967,7 +1971,7 @@
         <v>7.4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>34</v>
@@ -1987,10 +1991,10 @@
         <v>7.8</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
@@ -2045,10 +2049,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
@@ -2065,7 +2069,7 @@
         <v>8.4</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>14</v>
@@ -2085,10 +2089,10 @@
         <v>8.5</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="34">
         <v>4</v>
@@ -2130,7 +2134,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
@@ -2182,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -2232,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
@@ -2252,7 +2256,7 @@
         <v>45</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" s="3">
         <v>3</v>
@@ -2307,10 +2311,10 @@
         <v>11.2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -2345,7 +2349,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>26</v>
@@ -2365,7 +2369,7 @@
         <v>4.2</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>9</v>
@@ -2385,7 +2389,7 @@
         <v>4.3</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>14</v>
@@ -2423,7 +2427,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>26</v>
@@ -2443,7 +2447,7 @@
         <v>5.2</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>9</v>
@@ -2463,7 +2467,7 @@
         <v>5.3</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D69" s="61" t="s">
         <v>14</v>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20115" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -214,6 +214,111 @@
   </si>
   <si>
     <t>Connection between UI and Webservice using JSON</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Pull-to-refresh (SwipeRefreshLayout)</t>
+  </si>
+  <si>
+    <t>Webservice for getting posts with most votes or timestamp in frontpage</t>
+  </si>
+  <si>
+    <t>Using ExpandableLayout in PostContent Page</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Webservice for getting posts with earliest timestamp in frontpage</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>2.9.2</t>
+  </si>
+  <si>
+    <t>Deniz &amp; Firat &amp; Ugurcan</t>
+  </si>
+  <si>
+    <t>Ahamd &amp; Athar</t>
+  </si>
+  <si>
+    <t>UI Development for Frontpage for showing latest post</t>
+  </si>
+  <si>
+    <t>7.10.</t>
+  </si>
+  <si>
+    <t>Webservice for getting room list</t>
+  </si>
+  <si>
+    <t>Android development for retriving room list</t>
+  </si>
+  <si>
+    <t>Webservice for getting room details (Posts, Comments of post and votes)</t>
+  </si>
+  <si>
+    <t>Android development for retriving room details (Posts, Comments of post and votes)</t>
+  </si>
+  <si>
+    <t>Amin &amp; Ahamd &amp; Athar</t>
+  </si>
+  <si>
+    <t>Webservice for getting creating room</t>
+  </si>
+  <si>
+    <t>Android development creating room</t>
+  </si>
+  <si>
+    <t>Amin &amp; Deniz &amp; Firat&amp;Ugurcan</t>
+  </si>
+  <si>
+    <t>Webservice for users to follow other users</t>
+  </si>
+  <si>
+    <t>Android development for following users</t>
+  </si>
+  <si>
+    <t>Database support for users for following users</t>
+  </si>
+  <si>
+    <t>Amin &amp; Ahmad &amp; Athar</t>
+  </si>
+  <si>
+    <t>Webservice for users to follow rooms</t>
+  </si>
+  <si>
+    <t>Build webservice using RETSful using JAX-RS on netbeans (Create Post Service)</t>
+  </si>
+  <si>
+    <t>Library replacement for NavigationDrawer in Android Studio</t>
+  </si>
+  <si>
+    <t>WebService development for getting Post and Room contents</t>
+  </si>
+  <si>
+    <t>UI Development for posting</t>
+  </si>
+  <si>
+    <t>Android UI development for users to follow rooms</t>
+  </si>
+  <si>
+    <t>44 (till now)</t>
+  </si>
+  <si>
+    <t>19(till now)</t>
+  </si>
+  <si>
+    <t>1(till now)</t>
+  </si>
+  <si>
+    <t>24 (till now)</t>
+  </si>
+  <si>
+    <t>Amin &amp; Athar</t>
   </si>
 </sst>
 </file>
@@ -517,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,7 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,11 +695,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,11 +728,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,7 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -710,6 +809,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,19 +928,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40</c:v>
@@ -889,13 +1003,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>240</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159</c:v>
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,11 +1029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="291375104"/>
-        <c:axId val="215011840"/>
+        <c:axId val="234426368"/>
+        <c:axId val="215997184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291375104"/>
+        <c:axId val="234426368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215011840"/>
+        <c:crossAx val="215997184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -952,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215011840"/>
+        <c:axId val="215997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291375104"/>
+        <c:crossAx val="234426368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1008,16 +1125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269081</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>278605</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1326,30 +1443,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N69"/>
+  <dimension ref="A2:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
     <col min="9" max="11" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="M2" t="s">
         <v>19</v>
       </c>
@@ -1358,62 +1474,62 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="46" t="s">
         <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N3">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="71"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9">
-        <f>SUM(F6:F33)</f>
-        <v>47</v>
+        <f>SUM(E6,E7,E10,E11,E12,E13,E16:E18,E21,E25)</f>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N4" s="9">
-        <f>M4+(J4-40)</f>
-        <v>207</v>
+        <f>N3-J4</f>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1424,20 +1540,20 @@
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
       <c r="J5" s="9">
-        <f>SUM(F37:F69)</f>
-        <v>39</v>
+        <f>SUM(E37:E39,E42:E45,E48,E51,E54:E55,E48,E48,E48,E62:E64,E67:E69)</f>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
         <v>37</v>
       </c>
       <c r="M5">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N5" s="9">
-        <f>M5-40+J5</f>
-        <v>159</v>
+        <f>N4-J5</f>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1460,11 +1576,19 @@
         <v>1</v>
       </c>
       <c r="I6" s="9"/>
+      <c r="J6">
+        <f>SUM(E72:E74,E78,E81:E82,E85,E88:E90,E93:E97,E102)</f>
+        <v>45</v>
+      </c>
       <c r="L6" t="s">
         <v>38</v>
       </c>
       <c r="M6">
-        <v>120</v>
+        <v>130</v>
+      </c>
+      <c r="N6" s="9">
+        <f>N5-J6</f>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1491,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="M7">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1539,6 +1663,10 @@
       <c r="G9" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I9">
+        <f>SUM(E6:E13)</f>
+        <v>25</v>
+      </c>
       <c r="L9" t="s">
         <v>36</v>
       </c>
@@ -1565,6 +1693,10 @@
       <c r="G10" s="14">
         <v>1</v>
       </c>
+      <c r="J10" s="9">
+        <f>SUM(J4:J9)</f>
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
@@ -1584,6 +1716,10 @@
       </c>
       <c r="G11" s="14">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <f>260-117</f>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1633,6 +1769,10 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="14"/>
+      <c r="I14" s="9">
+        <f>SUM(F6:F7,F10:F13,F37:F39,F93:F97)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
@@ -1643,6 +1783,10 @@
       <c r="E15" s="21"/>
       <c r="F15" s="22"/>
       <c r="G15" s="26"/>
+      <c r="I15" s="9">
+        <f>SUM(F21,F42:F45)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
@@ -1663,8 +1807,12 @@
       <c r="G16" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="9">
+        <f>SUM(F16:F18,F72:F74)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -1683,8 +1831,12 @@
       <c r="G17" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>SUM(F25:F26,F81:F82)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>2.2999999999999998</v>
       </c>
@@ -1703,16 +1855,24 @@
       <c r="G18" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="9">
+        <f>SUM(F29,F51,F85)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="17"/>
+      <c r="I19" s="9">
+        <f>SUM(F32:F33,F54:F55,F88:F89)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>8</v>
       </c>
@@ -1721,8 +1881,12 @@
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>SUM(F102:F104)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>8.1</v>
       </c>
@@ -1742,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>8.1999999999999993</v>
       </c>
@@ -1753,54 +1917,52 @@
         <v>7</v>
       </c>
       <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>21</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>21.1</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="30">
-        <v>2</v>
-      </c>
-      <c r="F25" s="30">
-        <v>2</v>
-      </c>
-      <c r="G25" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="29">
+        <v>2</v>
+      </c>
+      <c r="F25" s="29">
+        <v>2</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>21.2</v>
       </c>
@@ -1820,7 +1982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
@@ -1828,17 +1990,17 @@
       <c r="F27" s="3"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>20</v>
       </c>
       <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>20.100000000000001</v>
       </c>
@@ -1858,25 +2020,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
         <v>13</v>
       </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>13.1</v>
       </c>
@@ -1917,24 +2079,24 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="72"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="24">
@@ -1944,7 +2106,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="27"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
@@ -2009,10 +2171,10 @@
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="19">
@@ -2071,13 +2233,13 @@
       <c r="C44" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="34">
-        <v>2</v>
-      </c>
-      <c r="F44" s="34">
+      <c r="E44" s="31">
+        <v>2</v>
+      </c>
+      <c r="F44" s="31">
         <v>2</v>
       </c>
       <c r="G44" s="16">
@@ -2091,13 +2253,13 @@
       <c r="C45" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="31">
         <v>4</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="31">
         <v>3</v>
       </c>
       <c r="G45" s="16">
@@ -2107,10 +2269,10 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="17"/>
       <c r="K46">
         <f>SUM(E37:E69)</f>
         <v>40</v>
@@ -2124,7 +2286,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="22"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
@@ -2149,17 +2311,17 @@
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="24">
@@ -2169,14 +2331,14 @@
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="55"/>
+      <c r="N50" s="50"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
@@ -2223,10 +2385,10 @@
         <v>13</v>
       </c>
       <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
@@ -2271,10 +2433,10 @@
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="24">
@@ -2284,7 +2446,7 @@
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="22"/>
-      <c r="G57" s="27"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -2329,10 +2491,10 @@
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="24">
@@ -2342,7 +2504,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="27"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10">
@@ -2404,15 +2566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
       <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="31"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>5</v>
       </c>
@@ -2420,9 +2582,9 @@
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="22"/>
-      <c r="G66" s="27"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="26"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>5.0999999999999996</v>
       </c>
@@ -2442,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>5.2</v>
       </c>
@@ -2462,145 +2624,734 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="59">
+    <row r="69" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="53">
         <v>5.3</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="62">
-        <v>1</v>
-      </c>
-      <c r="F69" s="63">
-        <v>1</v>
-      </c>
-      <c r="G69" s="64">
-        <v>1</v>
+      <c r="E69" s="56">
+        <v>1</v>
+      </c>
+      <c r="F69" s="57">
+        <v>1</v>
+      </c>
+      <c r="G69" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="19">
+        <v>2</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="28"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="31">
+        <v>8</v>
+      </c>
+      <c r="F72" s="31">
+        <v>10</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f>SUM(E72:E78,E16:E18)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="31">
+        <v>3</v>
+      </c>
+      <c r="F74" s="31">
+        <v>5</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="31">
+        <v>5</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="31">
+        <v>2</v>
+      </c>
+      <c r="F76" s="31"/>
+      <c r="G76" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="31">
+        <v>4</v>
+      </c>
+      <c r="F77" s="31"/>
+      <c r="G77" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77">
+        <f>SUM(E72:E74,E81:E82,E85,E88:E89,E93:E97)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="31">
+        <v>3</v>
+      </c>
+      <c r="F78" s="31">
+        <v>3</v>
+      </c>
+      <c r="G78" s="16">
+        <v>1</v>
+      </c>
+      <c r="J78" s="9">
+        <f>SUM(F72:F74,F81:F82,F85,F88:F89,F93:F97)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="19">
+        <v>21</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="28"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3">
+        <v>3</v>
+      </c>
+      <c r="G81" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="11">
+        <v>21.3</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="13"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="19">
+        <v>20</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="28"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="35"/>
+      <c r="B85" s="13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5">
+        <v>3</v>
+      </c>
+      <c r="G85" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="13"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="19">
+        <v>13</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="28"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="13">
+        <v>13.1</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4</v>
+      </c>
+      <c r="F88" s="5">
+        <v>5</v>
+      </c>
+      <c r="G88" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3</v>
+      </c>
+      <c r="F89" s="5">
+        <v>6</v>
+      </c>
+      <c r="G89" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="13"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="24">
+        <v>7</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="26"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="5">
+        <v>3</v>
+      </c>
+      <c r="G93" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="31">
+        <v>2</v>
+      </c>
+      <c r="F94" s="31">
+        <v>2</v>
+      </c>
+      <c r="G94" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="13">
+        <v>7.11</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="31">
+        <v>2</v>
+      </c>
+      <c r="F95" s="31">
+        <v>2</v>
+      </c>
+      <c r="G95" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="13">
+        <v>7.12</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="31">
+        <v>2</v>
+      </c>
+      <c r="F96" s="31">
+        <v>2</v>
+      </c>
+      <c r="G96" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="13">
+        <v>7.13</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="31">
+        <v>2</v>
+      </c>
+      <c r="F97" s="31">
+        <v>3</v>
+      </c>
+      <c r="G97" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="13">
+        <v>7.14</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="31">
+        <v>5</v>
+      </c>
+      <c r="F98" s="31"/>
+      <c r="G98" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="13">
+        <v>7.15</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="31">
+        <v>5</v>
+      </c>
+      <c r="F99" s="31"/>
+      <c r="G99" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="13"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="17"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="24">
+        <v>14</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="26"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="31">
+        <v>1</v>
+      </c>
+      <c r="F102" s="31">
+        <v>1</v>
+      </c>
+      <c r="G102" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="31">
+        <v>3</v>
+      </c>
+      <c r="F103" s="31"/>
+      <c r="G103" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="34">
+        <v>14.3</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="41">
+        <v>6</v>
+      </c>
+      <c r="F104" s="41"/>
+      <c r="G104" s="72" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:F15"/>
+  <dimension ref="D6:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F15"/>
+      <selection activeCell="D7" sqref="D7:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="45" customWidth="1"/>
     <col min="7" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="4:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="61" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="68">
+      <c r="D8" s="62">
         <v>7</v>
       </c>
-      <c r="E8" s="47">
-        <v>9</v>
-      </c>
-      <c r="F8" s="69">
-        <v>12</v>
+      <c r="E8" s="42">
+        <v>40</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="68">
+      <c r="D9" s="62">
         <v>8</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="42">
+        <v>14</v>
+      </c>
+      <c r="F9" s="63">
         <v>10</v>
       </c>
-      <c r="F9" s="69">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="70">
-        <v>11</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="D10" s="64">
+        <v>2</v>
+      </c>
+      <c r="E10" s="43">
+        <v>30</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="64">
+        <v>21</v>
+      </c>
+      <c r="E11" s="43">
+        <v>10</v>
+      </c>
+      <c r="F11" s="65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="64">
+        <v>20</v>
+      </c>
+      <c r="E12" s="43">
+        <v>6</v>
+      </c>
+      <c r="F12" s="65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="64">
+        <v>13</v>
+      </c>
+      <c r="E13" s="43">
+        <v>20</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="66">
+        <v>14</v>
+      </c>
+      <c r="E14" s="44">
+        <v>10</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="66">
+        <v>4</v>
+      </c>
+      <c r="E15" s="44">
+        <v>5</v>
+      </c>
+      <c r="F15" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="68">
+        <v>5</v>
+      </c>
+      <c r="E16" s="69">
         <v>3</v>
       </c>
-      <c r="F10" s="71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="70">
-        <v>21</v>
-      </c>
-      <c r="E11" s="48">
-        <v>3</v>
-      </c>
-      <c r="F11" s="71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="70">
-        <v>20</v>
-      </c>
-      <c r="E12" s="48">
-        <v>2</v>
-      </c>
-      <c r="F12" s="71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="70">
-        <v>13</v>
-      </c>
-      <c r="E13" s="48">
-        <v>5</v>
-      </c>
-      <c r="F13" s="71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="72">
-        <v>4</v>
-      </c>
-      <c r="E14" s="49">
-        <v>5</v>
-      </c>
-      <c r="F14" s="73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="74">
-        <v>5</v>
-      </c>
-      <c r="E15" s="75">
-        <v>3</v>
-      </c>
-      <c r="F15" s="76">
+      <c r="F16" s="70">
         <v>3</v>
       </c>
     </row>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="390" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="20115" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -315,10 +315,49 @@
     <t>1(till now)</t>
   </si>
   <si>
-    <t>24 (till now)</t>
-  </si>
-  <si>
     <t>Amin &amp; Athar</t>
+  </si>
+  <si>
+    <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>WebService development for signup</t>
+  </si>
+  <si>
+    <t>Webservice for checking User</t>
+  </si>
+  <si>
+    <t>Android development for signup page</t>
+  </si>
+  <si>
+    <t>Ugurcan &amp; Firat</t>
+  </si>
+  <si>
+    <t>WebService development for getting Vote</t>
+  </si>
+  <si>
+    <t>UI Development for Votes</t>
+  </si>
+  <si>
+    <t>WebService development for getting post with high number of votes in frontpage</t>
+  </si>
+  <si>
+    <t>Webservice development for getting hall content for every user</t>
+  </si>
+  <si>
+    <t>Webservice development for getting room content for every user</t>
+  </si>
+  <si>
+    <t>Webservice for getting room content and creating room by user</t>
+  </si>
+  <si>
+    <t>WebService development for setting Vote</t>
+  </si>
+  <si>
+    <t>WebService development for Login</t>
+  </si>
+  <si>
+    <t>Android development for Login page</t>
   </si>
 </sst>
 </file>
@@ -869,7 +908,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -928,22 +966,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>260</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1003,16 +1041,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>260</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143</c:v>
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,11 +1070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="234426368"/>
-        <c:axId val="215997184"/>
+        <c:axId val="74576896"/>
+        <c:axId val="292316288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234426368"/>
+        <c:axId val="74576896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,13 +1096,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215997184"/>
+        <c:crossAx val="292316288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215997184"/>
+        <c:axId val="292316288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,21 +1132,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234426368"/>
+        <c:crossAx val="74576896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1443,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N104"/>
+  <dimension ref="A2:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,10 +1537,10 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N3">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1525,11 +1563,11 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N4" s="9">
         <f>N3-J4</f>
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1549,11 +1587,11 @@
         <v>37</v>
       </c>
       <c r="M5">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N5" s="9">
         <f>N4-J5</f>
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1584,11 +1622,11 @@
         <v>38</v>
       </c>
       <c r="M6">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N6" s="9">
         <f>N5-J6</f>
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1611,10 +1649,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="9"/>
+      <c r="J7">
+        <f>SUM(E107:E109,E112:E114,E117:E119,E122:E124,E127,E130:E131)</f>
+        <v>33</v>
+      </c>
       <c r="L7" t="s">
         <v>39</v>
       </c>
       <c r="M7">
+        <v>90</v>
+      </c>
+      <c r="N7" s="9">
+        <f>N6-J7</f>
         <v>90</v>
       </c>
     </row>
@@ -1641,7 +1687,7 @@
         <v>40</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -1695,7 +1741,7 @@
       </c>
       <c r="J10" s="9">
         <f>SUM(J4:J9)</f>
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -3019,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -3220,6 +3266,585 @@
       <c r="G104" s="72" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="19">
+        <v>2</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="28"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="31">
+        <v>5</v>
+      </c>
+      <c r="F107" s="31">
+        <v>2</v>
+      </c>
+      <c r="G107" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="31">
+        <v>2</v>
+      </c>
+      <c r="F108" s="31">
+        <v>2</v>
+      </c>
+      <c r="G108" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="31">
+        <v>4</v>
+      </c>
+      <c r="F109" s="31">
+        <v>4</v>
+      </c>
+      <c r="G109" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="13"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="19">
+        <v>10</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="28"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="31">
+        <v>2</v>
+      </c>
+      <c r="F112" s="31">
+        <v>2</v>
+      </c>
+      <c r="G112" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="31">
+        <v>1</v>
+      </c>
+      <c r="F113" s="31">
+        <v>1</v>
+      </c>
+      <c r="G113" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="31">
+        <v>1</v>
+      </c>
+      <c r="F114" s="31">
+        <v>1</v>
+      </c>
+      <c r="G114" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="13"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="17"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="19">
+        <v>1</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="28"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="31">
+        <v>4</v>
+      </c>
+      <c r="F117" s="31">
+        <v>4</v>
+      </c>
+      <c r="G117" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E118" s="31">
+        <v>1</v>
+      </c>
+      <c r="F118" s="31">
+        <v>1</v>
+      </c>
+      <c r="G118" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" s="31">
+        <v>2</v>
+      </c>
+      <c r="F119" s="31">
+        <v>2</v>
+      </c>
+      <c r="G119" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="13"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="17"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="19">
+        <v>11</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="28"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" s="31">
+        <v>1</v>
+      </c>
+      <c r="F122" s="31">
+        <v>1</v>
+      </c>
+      <c r="G122" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E123" s="31">
+        <v>1</v>
+      </c>
+      <c r="F123" s="31">
+        <v>1</v>
+      </c>
+      <c r="G123" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E124" s="31">
+        <v>1</v>
+      </c>
+      <c r="F124" s="31">
+        <v>1</v>
+      </c>
+      <c r="G124" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="13"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="17"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="19">
+        <v>22</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="28"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="13">
+        <v>22.1</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E127" s="31">
+        <v>2</v>
+      </c>
+      <c r="F127" s="31">
+        <v>2</v>
+      </c>
+      <c r="G127" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="13"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="17"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="19">
+        <v>16</v>
+      </c>
+      <c r="C129" s="20"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="28"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" s="31">
+        <v>3</v>
+      </c>
+      <c r="F130" s="31">
+        <v>2</v>
+      </c>
+      <c r="G130" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E131" s="31">
+        <v>3</v>
+      </c>
+      <c r="F131" s="31">
+        <v>2</v>
+      </c>
+      <c r="G131" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="13"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="17"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="24">
+        <v>7</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="26"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="13">
+        <v>7.14</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="31">
+        <v>2</v>
+      </c>
+      <c r="F134" s="31"/>
+      <c r="G134" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="K134">
+        <f>SUM(E134:E135,E93:E97,E37:E39,E6:E13)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="13">
+        <v>7.15</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="31">
+        <v>2</v>
+      </c>
+      <c r="F135" s="31"/>
+      <c r="G135" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="13"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="17"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="19">
+        <v>13</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="28"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" s="3">
+        <v>3</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="13"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="17"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="24">
+        <v>14</v>
+      </c>
+      <c r="C140" s="25"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="26"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="31">
+        <v>3</v>
+      </c>
+      <c r="F141" s="31"/>
+      <c r="G141" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E142" s="31">
+        <v>6</v>
+      </c>
+      <c r="F142" s="31"/>
+      <c r="G142" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="34"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3230,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:F16"/>
+  <dimension ref="D6:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,7 +3886,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="42">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>96</v>
@@ -3285,8 +3910,8 @@
       <c r="E10" s="43">
         <v>30</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>99</v>
+      <c r="F10" s="65">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
@@ -3316,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="43">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="65" t="s">
         <v>97</v>
@@ -3344,15 +3969,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="68">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="66">
         <v>5</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="44">
         <v>3</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="67">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="66">
+        <v>10</v>
+      </c>
+      <c r="E17" s="44">
+        <v>4</v>
+      </c>
+      <c r="F17" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="66">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>7</v>
+      </c>
+      <c r="F18" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="66">
+        <v>11</v>
+      </c>
+      <c r="E19" s="44">
+        <v>3</v>
+      </c>
+      <c r="F19" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="66">
+        <v>22</v>
+      </c>
+      <c r="E20" s="44">
+        <v>2</v>
+      </c>
+      <c r="F20" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="68">
+        <v>16</v>
+      </c>
+      <c r="E21" s="69">
+        <v>6</v>
+      </c>
+      <c r="F21" s="70">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="20115" windowHeight="7695"/>
+    <workbookView xWindow="240" yWindow="510" windowWidth="20115" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="131">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -306,12 +306,6 @@
     <t>Android UI development for users to follow rooms</t>
   </si>
   <si>
-    <t>44 (till now)</t>
-  </si>
-  <si>
-    <t>19(till now)</t>
-  </si>
-  <si>
     <t>1(till now)</t>
   </si>
   <si>
@@ -358,6 +352,63 @@
   </si>
   <si>
     <t>Android development for Login page</t>
+  </si>
+  <si>
+    <t>Android UI development for following users</t>
+  </si>
+  <si>
+    <t>Websevice for users to vote for comments</t>
+  </si>
+  <si>
+    <t>Android UI development for users to vote for comments</t>
+  </si>
+  <si>
+    <t>Webservice for getting profile for users</t>
+  </si>
+  <si>
+    <t>Android UI development for profile of users</t>
+  </si>
+  <si>
+    <t>Firat &amp; Ugurcan</t>
+  </si>
+  <si>
+    <t>Webservice for editing profile information for users</t>
+  </si>
+  <si>
+    <t>Webservice for editing credentials (password or username)</t>
+  </si>
+  <si>
+    <t>Android UI development for editing information of users</t>
+  </si>
+  <si>
+    <t>Webservice for users to view other user's profile</t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Ugurcan</t>
+  </si>
+  <si>
+    <t>Android UI development for viewing profile of other users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad &amp; Firat &amp; Ugurcan </t>
+  </si>
+  <si>
+    <t>Ahmad &amp; Firat &amp; Athar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webservice for user to manage followers </t>
+  </si>
+  <si>
+    <t>Webservice for user to manage their posts and subcritions</t>
+  </si>
+  <si>
+    <t>Android UI development for profile editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webservice for getting validation email </t>
+  </si>
+  <si>
+    <t>SPRINT 5</t>
   </si>
 </sst>
 </file>
@@ -908,6 +959,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -966,7 +1018,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -1041,19 +1093,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>240</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>214</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,11 +1125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74576896"/>
-        <c:axId val="292316288"/>
+        <c:axId val="296806400"/>
+        <c:axId val="292106176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74576896"/>
+        <c:axId val="296806400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1151,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292316288"/>
+        <c:crossAx val="292106176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1109,7 +1165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292316288"/>
+        <c:axId val="292106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,19 +1188,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74576896"/>
+        <c:crossAx val="296806400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1481,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N143"/>
+  <dimension ref="A2:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M141" sqref="M141"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M178" sqref="M178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,10 +1595,10 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1567,7 +1625,7 @@
       </c>
       <c r="N4" s="9">
         <f>N3-J4</f>
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1591,7 +1649,7 @@
       </c>
       <c r="N5" s="9">
         <f>N4-J5</f>
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1626,7 +1684,7 @@
       </c>
       <c r="N6" s="9">
         <f>N5-J6</f>
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1661,7 +1719,7 @@
       </c>
       <c r="N7" s="9">
         <f>N6-J7</f>
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1683,11 +1741,18 @@
       <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
       <c r="L8" t="s">
         <v>40</v>
       </c>
       <c r="M8">
         <v>50</v>
+      </c>
+      <c r="N8" s="9">
+        <f>N7-J8</f>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -1741,7 +1806,7 @@
       </c>
       <c r="J10" s="9">
         <f>SUM(J4:J9)</f>
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -3065,7 +3130,7 @@
         <v>78</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -3272,7 +3337,7 @@
         <v>28</v>
       </c>
       <c r="C105" s="74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D105" s="74" t="s">
         <v>2</v>
@@ -3380,7 +3445,7 @@
         <v>10.1</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D112" s="31" t="s">
         <v>82</v>
@@ -3400,7 +3465,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D113" s="31" t="s">
         <v>7</v>
@@ -3420,7 +3485,7 @@
         <v>10.3</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D114" s="31" t="s">
         <v>7</v>
@@ -3458,7 +3523,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>51</v>
@@ -3478,7 +3543,7 @@
         <v>1.2</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>82</v>
@@ -3498,10 +3563,10 @@
         <v>1.3</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E119" s="31">
         <v>2</v>
@@ -3536,7 +3601,7 @@
         <v>11.1</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D122" s="31" t="s">
         <v>51</v>
@@ -3556,7 +3621,7 @@
         <v>11.2</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D123" s="31" t="s">
         <v>82</v>
@@ -3576,10 +3641,10 @@
         <v>11.3</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E124" s="31">
         <v>1</v>
@@ -3614,7 +3679,7 @@
         <v>22.1</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>70</v>
@@ -3652,7 +3717,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D130" s="31" t="s">
         <v>70</v>
@@ -3672,7 +3737,7 @@
         <v>16.2</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>70</v>
@@ -3710,7 +3775,7 @@
         <v>7.14</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D134" s="31" t="s">
         <v>26</v>
@@ -3839,12 +3904,574 @@
       </c>
     </row>
     <row r="143" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="34"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="72"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="17"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" s="75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="24">
+        <v>7</v>
+      </c>
+      <c r="C145" s="25"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="26"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="13">
+        <v>7.14</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="31">
+        <v>5</v>
+      </c>
+      <c r="F146" s="31">
+        <v>3</v>
+      </c>
+      <c r="G146" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="13">
+        <v>7.15</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E147" s="31">
+        <v>5</v>
+      </c>
+      <c r="F147" s="31">
+        <v>3</v>
+      </c>
+      <c r="G147" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="13"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="17"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="24">
+        <v>13</v>
+      </c>
+      <c r="C149" s="20"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="28"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F150" s="5">
+        <v>2</v>
+      </c>
+      <c r="G150" s="14">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <f>SUM(E146:E147,E150:E151,E158:E159,E162:E163,E166:E168,E171:E172,E180)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="13">
+        <v>13.4</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1</v>
+      </c>
+      <c r="F151" s="5">
+        <v>2</v>
+      </c>
+      <c r="G151" s="14">
+        <v>1</v>
+      </c>
+      <c r="I151" s="9">
+        <f>SUM(F146:F147,F150:F151,F158:F159,F162:F164,F166:F168,F171:F172,F180)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="13"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="17"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="24">
+        <v>14</v>
+      </c>
+      <c r="C153" s="25"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="26"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" s="31">
+        <v>3</v>
+      </c>
+      <c r="F154" s="31"/>
+      <c r="G154" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E155" s="31">
+        <v>6</v>
+      </c>
+      <c r="F155" s="31"/>
+      <c r="G155" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="13"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="17"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="24">
+        <v>9</v>
+      </c>
+      <c r="C157" s="25"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="26"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="13">
+        <v>9.1</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="31">
+        <v>2</v>
+      </c>
+      <c r="F158" s="31">
+        <v>2</v>
+      </c>
+      <c r="G158" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E159" s="31">
+        <v>3</v>
+      </c>
+      <c r="F159" s="31">
+        <v>2</v>
+      </c>
+      <c r="G159" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="13"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="17"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="24">
+        <v>23</v>
+      </c>
+      <c r="C161" s="25"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="26"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="13">
+        <v>23.1</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="31">
+        <v>3</v>
+      </c>
+      <c r="F162" s="31">
+        <v>2</v>
+      </c>
+      <c r="G162" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E163" s="31">
+        <v>2</v>
+      </c>
+      <c r="F163" s="31">
+        <v>2</v>
+      </c>
+      <c r="G163" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="13"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="17"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="24">
+        <v>24</v>
+      </c>
+      <c r="C165" s="25"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="26"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="31">
+        <v>1</v>
+      </c>
+      <c r="F166" s="31">
+        <v>1</v>
+      </c>
+      <c r="G166" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="13">
+        <v>24.2</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E167" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F167" s="31">
+        <v>2</v>
+      </c>
+      <c r="G167" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="13">
+        <v>24.3</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F168" s="31">
+        <v>2</v>
+      </c>
+      <c r="G168" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="13"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="17"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="24">
+        <v>17</v>
+      </c>
+      <c r="C170" s="25"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="26"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D171" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="31">
+        <v>2</v>
+      </c>
+      <c r="F171" s="31">
+        <v>2</v>
+      </c>
+      <c r="G171" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E172" s="31">
+        <v>2</v>
+      </c>
+      <c r="F172" s="31">
+        <v>3</v>
+      </c>
+      <c r="G172" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="13"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="17"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="24">
+        <v>18</v>
+      </c>
+      <c r="C174" s="25"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="26"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E175" s="31">
+        <v>2</v>
+      </c>
+      <c r="F175" s="31">
+        <v>1</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E176" s="31">
+        <v>2</v>
+      </c>
+      <c r="F176" s="31"/>
+      <c r="G176" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E177" s="31">
+        <v>2</v>
+      </c>
+      <c r="F177" s="31"/>
+      <c r="G177" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="13"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="17"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="24">
+        <v>25</v>
+      </c>
+      <c r="C179" s="25"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="26"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="13">
+        <v>25.1</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D180" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E180" s="31">
+        <v>3</v>
+      </c>
+      <c r="F180" s="31">
+        <v>3</v>
+      </c>
+      <c r="G180" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="34"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="41"/>
+      <c r="G181" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3855,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:F21"/>
+  <dimension ref="D6:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,10 +4513,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="42">
-        <v>50</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>96</v>
+        <v>54</v>
+      </c>
+      <c r="F8" s="63">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
@@ -3943,8 +4570,8 @@
       <c r="E13" s="43">
         <v>22</v>
       </c>
-      <c r="F13" s="65" t="s">
-        <v>97</v>
+      <c r="F13" s="65">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
@@ -3955,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
@@ -4024,15 +4651,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="68">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="66">
         <v>16</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="44">
         <v>6</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="67">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="66">
+        <v>9</v>
+      </c>
+      <c r="E22" s="44">
+        <v>5</v>
+      </c>
+      <c r="F22" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="66">
+        <v>23</v>
+      </c>
+      <c r="E23" s="44">
+        <v>5</v>
+      </c>
+      <c r="F23" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="66">
+        <v>24</v>
+      </c>
+      <c r="E24" s="44">
+        <v>4</v>
+      </c>
+      <c r="F24" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="66">
+        <v>25</v>
+      </c>
+      <c r="E25" s="44">
+        <v>3</v>
+      </c>
+      <c r="F25" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="66">
+        <v>17</v>
+      </c>
+      <c r="E26" s="44">
+        <v>4</v>
+      </c>
+      <c r="F26" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="68">
+        <v>18</v>
+      </c>
+      <c r="E27" s="69">
+        <v>6</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="45">
+        <f>SUM(E8:E27)</f>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/SprintBacklog/Sprint-Backlog.xlsx
+++ b/SprintBacklog/Sprint-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="150">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Android UI development for users to follow rooms</t>
   </si>
   <si>
-    <t>1(till now)</t>
-  </si>
-  <si>
     <t>Amin &amp; Athar</t>
   </si>
   <si>
@@ -409,6 +406,66 @@
   </si>
   <si>
     <t>SPRINT 5</t>
+  </si>
+  <si>
+    <t>SPRINT 6</t>
+  </si>
+  <si>
+    <t>Webservice for user for editing post</t>
+  </si>
+  <si>
+    <t>Database support for users to edit post</t>
+  </si>
+  <si>
+    <t>Webservice for user for deleting post</t>
+  </si>
+  <si>
+    <t>Database support for users for deleting post</t>
+  </si>
+  <si>
+    <t>Android development for editing post</t>
+  </si>
+  <si>
+    <t>Android development for deleting post</t>
+  </si>
+  <si>
+    <t>Webservice for user for editing comment</t>
+  </si>
+  <si>
+    <t>Database support for users to edit comment</t>
+  </si>
+  <si>
+    <t>Webservice for user for deleting comment</t>
+  </si>
+  <si>
+    <t>Database support for users for deleting comment</t>
+  </si>
+  <si>
+    <t>Android development for editing comment</t>
+  </si>
+  <si>
+    <t>Android development for deleting comment</t>
+  </si>
+  <si>
+    <t>Android development for providing search</t>
+  </si>
+  <si>
+    <t>Android development for user to deactivate account</t>
+  </si>
+  <si>
+    <t>Webservice for searching in hall with database support</t>
+  </si>
+  <si>
+    <t>Webservice for user to deactivated account with database support</t>
+  </si>
+  <si>
+    <t>Ahmad&amp; Firat&amp; Ugurcan&amp; Athar</t>
+  </si>
+  <si>
+    <t>Amin &amp; Deniz &amp; Firat</t>
+  </si>
+  <si>
+    <t>Amin &amp; Deniz &amp; Ugurcan</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1075,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -1093,22 +1150,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>239</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296806400"/>
-        <c:axId val="292106176"/>
+        <c:axId val="160084480"/>
+        <c:axId val="159924224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296806400"/>
+        <c:axId val="160084480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292106176"/>
+        <c:crossAx val="159924224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1165,7 +1225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292106176"/>
+        <c:axId val="159924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296806400"/>
+        <c:crossAx val="160084480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1539,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N181"/>
+  <dimension ref="A2:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M178" sqref="M178"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1655,10 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N3">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1625,7 +1685,7 @@
       </c>
       <c r="N4" s="9">
         <f>N3-J4</f>
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1649,7 +1709,7 @@
       </c>
       <c r="N5" s="9">
         <f>N4-J5</f>
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1684,7 +1744,7 @@
       </c>
       <c r="N6" s="9">
         <f>N5-J6</f>
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1719,7 +1779,7 @@
       </c>
       <c r="N7" s="9">
         <f>N6-J7</f>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1752,7 +1812,7 @@
       </c>
       <c r="N8" s="9">
         <f>N7-J8</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -1778,10 +1838,17 @@
         <f>SUM(E6:E13)</f>
         <v>25</v>
       </c>
+      <c r="J9">
+        <f>SUM(F8:F38)</f>
+        <v>51</v>
+      </c>
       <c r="L9" t="s">
         <v>36</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1873,7 @@
       </c>
       <c r="J10" s="9">
         <f>SUM(J4:J9)</f>
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -3130,7 +3197,7 @@
         <v>78</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -3337,7 +3404,7 @@
         <v>28</v>
       </c>
       <c r="C105" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="74" t="s">
         <v>2</v>
@@ -3445,7 +3512,7 @@
         <v>10.1</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D112" s="31" t="s">
         <v>82</v>
@@ -3465,7 +3532,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" s="31" t="s">
         <v>7</v>
@@ -3485,7 +3552,7 @@
         <v>10.3</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D114" s="31" t="s">
         <v>7</v>
@@ -3523,7 +3590,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>51</v>
@@ -3543,7 +3610,7 @@
         <v>1.2</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>82</v>
@@ -3563,10 +3630,10 @@
         <v>1.3</v>
       </c>
       <c r="C119" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="E119" s="31">
         <v>2</v>
@@ -3601,7 +3668,7 @@
         <v>11.1</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D122" s="31" t="s">
         <v>51</v>
@@ -3621,7 +3688,7 @@
         <v>11.2</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D123" s="31" t="s">
         <v>82</v>
@@ -3641,10 +3708,10 @@
         <v>11.3</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E124" s="31">
         <v>1</v>
@@ -3679,7 +3746,7 @@
         <v>22.1</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>70</v>
@@ -3717,7 +3784,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D130" s="31" t="s">
         <v>70</v>
@@ -3737,7 +3804,7 @@
         <v>16.2</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>70</v>
@@ -3775,7 +3842,7 @@
         <v>7.14</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D134" s="31" t="s">
         <v>26</v>
@@ -3916,7 +3983,7 @@
         <v>28</v>
       </c>
       <c r="C144" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D144" s="74" t="s">
         <v>2</v>
@@ -3946,7 +4013,7 @@
         <v>7.14</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>26</v>
@@ -4088,7 +4155,7 @@
         <v>14.3</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D155" s="31" t="s">
         <v>85</v>
@@ -4124,7 +4191,7 @@
         <v>9.1</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D158" s="31" t="s">
         <v>26</v>
@@ -4144,7 +4211,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D159" s="31" t="s">
         <v>85</v>
@@ -4182,7 +4249,7 @@
         <v>23.1</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D162" s="31" t="s">
         <v>9</v>
@@ -4202,10 +4269,10 @@
         <v>23.2</v>
       </c>
       <c r="C163" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D163" s="31" t="s">
         <v>116</v>
-      </c>
-      <c r="D163" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="E163" s="31">
         <v>2</v>
@@ -4240,10 +4307,10 @@
         <v>24.1</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E166" s="31">
         <v>1</v>
@@ -4260,10 +4327,10 @@
         <v>24.2</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E167" s="31">
         <v>1.5</v>
@@ -4280,7 +4347,7 @@
         <v>24.3</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D168" s="31" t="s">
         <v>51</v>
@@ -4318,10 +4385,10 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C171" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D171" s="31" t="s">
         <v>121</v>
-      </c>
-      <c r="D171" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="E171" s="31">
         <v>2</v>
@@ -4338,7 +4405,7 @@
         <v>17.2</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D172" s="31" t="s">
         <v>85</v>
@@ -4376,7 +4443,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D175" s="31" t="s">
         <v>70</v>
@@ -4396,7 +4463,7 @@
         <v>18.2</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D176" s="31" t="s">
         <v>70</v>
@@ -4409,12 +4476,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="13">
         <v>18.3</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D177" s="31" t="s">
         <v>70</v>
@@ -4427,7 +4494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
       <c r="C178" s="12"/>
       <c r="D178" s="31"/>
@@ -4435,7 +4502,7 @@
       <c r="F178" s="31"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="24">
         <v>25</v>
       </c>
@@ -4445,12 +4512,12 @@
       <c r="F179" s="22"/>
       <c r="G179" s="26"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="13">
         <v>25.1</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D180" s="31" t="s">
         <v>62</v>
@@ -4465,13 +4532,569 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="34"/>
       <c r="C181" s="8"/>
       <c r="D181" s="41"/>
       <c r="E181" s="41"/>
       <c r="F181" s="41"/>
       <c r="G181" s="72"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D182" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" s="75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="24">
+        <v>14</v>
+      </c>
+      <c r="C183" s="25"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="26"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D184" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184" s="31">
+        <v>6</v>
+      </c>
+      <c r="F184" s="31">
+        <v>5</v>
+      </c>
+      <c r="G184" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D185" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E185" s="31">
+        <v>3</v>
+      </c>
+      <c r="F185" s="31">
+        <v>3</v>
+      </c>
+      <c r="G185" s="16">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <f>SUM(E184:E214)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="13"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="17"/>
+      <c r="I186">
+        <f>SUM(F184:F214)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="24">
+        <v>18</v>
+      </c>
+      <c r="C187" s="25"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="26"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E188" s="31">
+        <v>3</v>
+      </c>
+      <c r="F188" s="31">
+        <v>3</v>
+      </c>
+      <c r="G188" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D189" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E189" s="31">
+        <v>3</v>
+      </c>
+      <c r="F189" s="31">
+        <v>2</v>
+      </c>
+      <c r="G189" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D190" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E190" s="31">
+        <v>3</v>
+      </c>
+      <c r="F190" s="31">
+        <v>3</v>
+      </c>
+      <c r="G190" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="13"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="17"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="24">
+        <v>3</v>
+      </c>
+      <c r="C192" s="25"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="26"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E193" s="31">
+        <v>2</v>
+      </c>
+      <c r="F193" s="31">
+        <v>2</v>
+      </c>
+      <c r="G193" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="31">
+        <v>1</v>
+      </c>
+      <c r="F194" s="31">
+        <v>1</v>
+      </c>
+      <c r="G194" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D195" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E195" s="31">
+        <v>2</v>
+      </c>
+      <c r="F195" s="31">
+        <v>2</v>
+      </c>
+      <c r="G195" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" s="31">
+        <v>1</v>
+      </c>
+      <c r="F196" s="31">
+        <v>1</v>
+      </c>
+      <c r="G196" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E197" s="31">
+        <v>2</v>
+      </c>
+      <c r="F197" s="31">
+        <v>2</v>
+      </c>
+      <c r="G197" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E198" s="31">
+        <v>1</v>
+      </c>
+      <c r="F198" s="31">
+        <v>1</v>
+      </c>
+      <c r="G198" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="13"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="17"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="24">
+        <v>6</v>
+      </c>
+      <c r="C200" s="25"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="26"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E201" s="31">
+        <v>2</v>
+      </c>
+      <c r="F201" s="31">
+        <v>2</v>
+      </c>
+      <c r="G201" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" s="31">
+        <v>1</v>
+      </c>
+      <c r="F202" s="31">
+        <v>1</v>
+      </c>
+      <c r="G202" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D203" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E203" s="31">
+        <v>1</v>
+      </c>
+      <c r="F203" s="31">
+        <v>2</v>
+      </c>
+      <c r="G203" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E204" s="31">
+        <v>1</v>
+      </c>
+      <c r="F204" s="31">
+        <v>1</v>
+      </c>
+      <c r="G204" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E205" s="31">
+        <v>1</v>
+      </c>
+      <c r="F205" s="31">
+        <v>1</v>
+      </c>
+      <c r="G205" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="31">
+        <v>1</v>
+      </c>
+      <c r="F206" s="31">
+        <v>1</v>
+      </c>
+      <c r="G206" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="13"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="31"/>
+      <c r="E207" s="31"/>
+      <c r="F207" s="31"/>
+      <c r="G207" s="17"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="24">
+        <v>15</v>
+      </c>
+      <c r="C208" s="25"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="26"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D209" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E209" s="31">
+        <v>7</v>
+      </c>
+      <c r="F209" s="31">
+        <v>7</v>
+      </c>
+      <c r="G209" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D210" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E210" s="31">
+        <v>3</v>
+      </c>
+      <c r="F210" s="31">
+        <v>3</v>
+      </c>
+      <c r="G210" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="13"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="17"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="24">
+        <v>12</v>
+      </c>
+      <c r="C212" s="25"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="26"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D213" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E213" s="31">
+        <v>5</v>
+      </c>
+      <c r="F213" s="31">
+        <v>5</v>
+      </c>
+      <c r="G213" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D214" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E214" s="31">
+        <v>3</v>
+      </c>
+      <c r="F214" s="31">
+        <v>3</v>
+      </c>
+      <c r="G214" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="34"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="41"/>
+      <c r="G215" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4482,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:F28"/>
+  <dimension ref="D6:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,8 +5204,8 @@
       <c r="E14" s="44">
         <v>10</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>96</v>
+      <c r="F14" s="67">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
@@ -4697,7 +5320,7 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="66">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25" s="44">
         <v>3</v>
@@ -4717,21 +5340,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="68">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="66">
         <v>18</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="44">
+        <v>9</v>
+      </c>
+      <c r="F27" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="66">
+        <v>3</v>
+      </c>
+      <c r="E28" s="44">
+        <v>9</v>
+      </c>
+      <c r="F28" s="67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="66">
         <v>6</v>
       </c>
-      <c r="F27" s="70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="45">
-        <f>SUM(E8:E27)</f>
-        <v>203</v>
+      <c r="E29" s="44">
+        <v>7</v>
+      </c>
+      <c r="F29" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="66">
+        <v>15</v>
+      </c>
+      <c r="E30" s="44">
+        <v>10</v>
+      </c>
+      <c r="F30" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="68">
+        <v>12</v>
+      </c>
+      <c r="E31" s="69">
+        <v>8</v>
+      </c>
+      <c r="F31" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="45">
+        <f>SUM(E8:E31)</f>
+        <v>240</v>
+      </c>
+      <c r="F32" s="45">
+        <f>SUM(F8:F31)</f>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
